--- a/report_data.xlsx
+++ b/report_data.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72aa14ab9544b7b6/CS_421/Reliable-Transfer-Protocol-over-UDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC104872619C431E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE30E3F-26E9-456C-B88F-2719E1038883}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_F25DC773A252ABDACC104872619C431E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4276EA0C-8CE8-4AA4-B3F1-56F1D4E6629D}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="7110" windowWidth="15720" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Average Throughput(bps)</t>
   </si>
@@ -38,30 +49,12 @@
   <si>
     <t>Timeout(ms)</t>
   </si>
-  <si>
-    <t>34134832/315.06</t>
-  </si>
-  <si>
-    <t>34134832/365.1</t>
-  </si>
-  <si>
-    <t>34134832/1067.64</t>
-  </si>
-  <si>
-    <t>34134832/660.29</t>
-  </si>
-  <si>
-    <t>34134832/600.20</t>
-  </si>
-  <si>
-    <t>34134832/510</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +68,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -107,11 +119,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -119,11 +203,454 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -136,8 +663,2964 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Throughput(bps) vs Loss Rate(p)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput(bps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1450694.0926476838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>810226.25207690476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640789.03698141535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530291.0051266118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399658.49432150804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301384.70775207487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-744E-4E6A-A37C-1FF4C24CCEA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="96992511"/>
+        <c:axId val="96993951"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Loss Rate(p)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-744E-4E6A-A37C-1FF4C24CCEA9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96992511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96993951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96993951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96992511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30128018372703413"/>
+          <c:y val="0.89473237948434758"/>
+          <c:w val="0.3964468577548248"/>
+          <c:h val="7.874084601016107E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput (in bps) vs. Window Size (N)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput(bps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>419604.57283343578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>894753.13237221492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1219972.5518227306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1469428.8420146361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1665113.756097561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3EC-4690-A7BA-AD495059BD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="348720447"/>
+        <c:axId val="348726207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="348720447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348726207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348726207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348720447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Throughput (in bps) vs Timeout(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Throughput(bps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$17:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1397250.593532542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1102902.4878836833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>957498.79382889206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880671.62022703828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>714865.59162303666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F428-4201-B792-8BBA7C211900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="354023759"/>
+        <c:axId val="354026159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="354023759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354026159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354026159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354023759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1652382</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277468</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474CAA6A-B1D3-9FFB-849D-FD3E8B1BDE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1652381</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277467</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD3FB80-EAAF-6B13-9140-EAB768C1EA3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>708163</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1395620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55831A10-B906-453D-9822-DBB883832306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{191C84DB-DF3C-41D9-BA0C-EE5355928E40}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:B7" xr:uid="{191C84DB-DF3C-41D9-BA0C-EE5355928E40}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6DE91879-123F-4463-8B5F-E23EFBC80358}" name="Loss Rate(p)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DD130A38-99DD-4B12-BF48-C6FD971410E3}" name="Average Throughput(bps)" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{09BF09F2-4C9C-49D9-AD41-522F873DA272}" name="Table2" displayName="Table2" ref="A9:B14" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A9:B14" xr:uid="{09BF09F2-4C9C-49D9-AD41-522F873DA272}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{24E0F3F9-C416-4131-BD86-48684B8754B2}" name="Window Size(N)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{602EE4A3-17DC-444F-9124-680FB6A9D18F}" name="Average Throughput(bps)" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E289EF48-788C-4672-B93B-4C2EF89F7CA6}" name="Table3" displayName="Table3" ref="A16:B21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="A16:B21" xr:uid="{E289EF48-788C-4672-B93B-4C2EF89F7CA6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2DA7ED5A-A8A5-4FC6-AD0F-CE5ED823512D}" name="Timeout(ms)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5DFB0260-A0A8-4B26-A0AC-2E4F6D7979B3}" name="Average Throughput(bps)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,154 +3886,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
+      <c r="B2" s="11">
+        <f>(34134832/23.53)</f>
+        <v>1450694.0926476838</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>0.1</v>
       </c>
+      <c r="B3" s="4">
+        <f>(34134832/42.13)</f>
+        <v>810226.25207690476</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>0.2</v>
       </c>
+      <c r="B4" s="11">
+        <f>(34134832/53.27)</f>
+        <v>640789.03698141535</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>0.3</v>
       </c>
+      <c r="B5" s="4">
+        <f>(34134832/64.37)</f>
+        <v>530291.0051266118</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>0.4</v>
       </c>
+      <c r="B6" s="11">
+        <f>(34134832/85.41)</f>
+        <v>399658.49432150804</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>0.5</v>
       </c>
+      <c r="B7" s="4">
+        <f>(34134832/113.26)</f>
+        <v>301384.70775207487</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
+      <c r="B10" s="11">
+        <f>(34134832/81.35)</f>
+        <v>419604.57283343578</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>30</v>
       </c>
+      <c r="B11" s="4">
+        <f>(34134832/38.15)</f>
+        <v>894753.13237221492</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>50</v>
       </c>
+      <c r="B12" s="11">
+        <f>(34134832/27.98)</f>
+        <v>1219972.5518227306</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>70</v>
       </c>
+      <c r="B13" s="4">
+        <f>(34134832/23.23)</f>
+        <v>1469428.8420146361</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>90</v>
       </c>
+      <c r="B14" s="11">
+        <f>(34134832/20.5)</f>
+        <v>1665113.756097561</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>60</v>
       </c>
+      <c r="B17" s="11">
+        <f>(34134832/24.43)</f>
+        <v>1397250.593532542</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>100</v>
       </c>
+      <c r="B18" s="1">
+        <f>(34134832/30.95)</f>
+        <v>1102902.4878836833</v>
+      </c>
+      <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>140</v>
       </c>
+      <c r="B19" s="9">
+        <f>(34134832/35.65)</f>
+        <v>957498.79382889206</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>180</v>
       </c>
+      <c r="B20" s="1">
+        <f>(34134832/38.76)</f>
+        <v>880671.62022703828</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>220</v>
       </c>
+      <c r="B21" s="9">
+        <f>(34134832/47.75)</f>
+        <v>714865.59162303666</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>